--- a/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51F5DEF-A45B-4714-9E89-AF7D0D544942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8E907B-8038-4C93-B8D3-D1DAE830073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{56498B29-D00E-4C8F-8DBE-4558BEFE063B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{426857ED-2422-419A-B502-81C8269207A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,18 +68,69 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -89,43 +140,34 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>97,18%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -149,48 +191,6 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
@@ -212,6 +212,78 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
     <t>44,27%</t>
   </si>
   <si>
@@ -266,58 +338,58 @@
     <t>66,62%</t>
   </si>
   <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>38,05%</t>
@@ -374,78 +446,6 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
     <t>37,6%</t>
   </si>
   <si>
@@ -497,6 +497,102 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
     <t>35,57%</t>
   </si>
   <si>
@@ -551,58 +647,52 @@
     <t>69,41%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
   </si>
   <si>
     <t>42,79%</t>
@@ -659,96 +749,6 @@
     <t>68,22%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
     <t>44,86%</t>
   </si>
   <si>
@@ -806,6 +806,108 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
     <t>42,73%</t>
   </si>
   <si>
@@ -860,58 +962,58 @@
     <t>65,71%</t>
   </si>
   <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>39,43%</t>
@@ -960,108 +1062,6 @@
   </si>
   <si>
     <t>73,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
   </si>
   <si>
     <t>40,79%</t>
@@ -1507,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAEE9D3-5899-4822-8400-09CD9369E64C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DD2E7-C05E-4BBD-8A23-75683DE00845}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,10 +1676,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1691,10 +1691,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1706,10 +1706,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1727,10 +1727,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1742,10 +1742,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1757,10 +1757,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1986,10 +1986,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2001,10 +2001,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -2016,10 +2016,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -2037,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2052,10 +2052,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2067,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2141,10 +2141,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -2156,10 +2156,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -2171,10 +2171,10 @@
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -2192,10 +2192,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2207,10 +2207,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2222,10 +2222,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2296,10 +2296,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -2311,10 +2311,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -2326,10 +2326,10 @@
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -2347,10 +2347,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2362,10 +2362,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2377,10 +2377,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2565,7 +2565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FDF686-0D07-4001-AC35-4CF14BEFFD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B06A80-7621-4384-AE46-3075334F3AA0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,49 +2683,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>17848</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16012</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="7">
-        <v>49</v>
-      </c>
-      <c r="N4" s="7">
-        <v>33860</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,49 +2734,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>22472</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>24589</v>
+        <v>6234</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>47061</v>
+        <v>8885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2800,10 +2800,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>40601</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2815,10 +2815,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>80921</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2844,13 +2844,13 @@
         <v>12872</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2859,13 +2859,13 @@
         <v>7960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2874,13 +2874,13 @@
         <v>20832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2895,13 @@
         <v>18900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2910,13 +2910,13 @@
         <v>17252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -2925,13 +2925,13 @@
         <v>36153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,46 +2996,46 @@
         <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>17970</v>
+        <v>17848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>12247</v>
+        <v>16012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>30217</v>
+        <v>33860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,49 +3044,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>22472</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="7">
         <v>38</v>
       </c>
-      <c r="D11" s="7">
-        <v>29259</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="7">
-        <v>39</v>
-      </c>
       <c r="I11" s="7">
-        <v>29539</v>
+        <v>24589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>58798</v>
+        <v>47061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,10 +3095,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>47229</v>
+        <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3110,10 +3110,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>41786</v>
+        <v>40601</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3125,10 +3125,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="7">
-        <v>89015</v>
+        <v>80921</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3148,49 +3148,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>10937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>11892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>22829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,49 +3199,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>2652</v>
+        <v>25664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="7">
+        <v>34</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21072</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="7">
+        <v>73</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46736</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6234</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>10</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8885</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,10 +3250,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>36601</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3265,10 +3265,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3280,10 +3280,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>69565</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3303,10 +3303,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>10937</v>
+        <v>17970</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>117</v>
@@ -3318,10 +3318,10 @@
         <v>119</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>11892</v>
+        <v>12247</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>120</v>
@@ -3333,10 +3333,10 @@
         <v>122</v>
       </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>22829</v>
+        <v>30217</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>123</v>
@@ -3354,10 +3354,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>25664</v>
+        <v>29259</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>126</v>
@@ -3369,10 +3369,10 @@
         <v>128</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>21072</v>
+        <v>29539</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>129</v>
@@ -3384,10 +3384,10 @@
         <v>131</v>
       </c>
       <c r="M17" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>46736</v>
+        <v>58798</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>132</v>
@@ -3405,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>36601</v>
+        <v>47229</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3420,10 +3420,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3435,10 +3435,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>69565</v>
+        <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3482,7 +3482,7 @@
         <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>139</v>
@@ -3536,7 +3536,7 @@
         <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>279</v>
@@ -3623,7 +3623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCAED4-A075-4F28-A231-3DEB44352AEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C1A6E0-F3BB-495D-80F0-AE1846F72A9C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3741,49 +3741,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>14637</v>
+        <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2799</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17917</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3776</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M4" s="7">
-        <v>49</v>
-      </c>
-      <c r="N4" s="7">
-        <v>32553</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,49 +3792,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>26510</v>
+        <v>2533</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3680</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6213</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="7">
-        <v>41</v>
-      </c>
-      <c r="I5" s="7">
-        <v>24782</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="7">
-        <v>81</v>
-      </c>
-      <c r="N5" s="7">
-        <v>51293</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3858,10 +3858,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3873,10 +3873,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3902,13 +3902,13 @@
         <v>12619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3917,13 +3917,13 @@
         <v>7182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3932,13 +3932,13 @@
         <v>19801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3953,13 @@
         <v>8048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3968,13 +3968,13 @@
         <v>10698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -3983,13 +3983,13 @@
         <v>18746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +4051,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>12900</v>
+        <v>14637</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="7">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7">
+        <v>17917</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>49</v>
+      </c>
+      <c r="N10" s="7">
+        <v>32553</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13644</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M10" s="7">
-        <v>36</v>
-      </c>
-      <c r="N10" s="7">
-        <v>26543</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,49 +4102,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>17246</v>
+        <v>26510</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="7">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7">
+        <v>24782</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>81</v>
+      </c>
+      <c r="N11" s="7">
+        <v>51293</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19144</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36391</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4168,10 +4168,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4183,10 +4183,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4206,49 +4206,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>977</v>
+        <v>14164</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7707</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2799</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>35</v>
+      </c>
+      <c r="N13" s="7">
+        <v>21871</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3776</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,49 +4257,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>2533</v>
+        <v>13642</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="7">
+        <v>33</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19908</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3680</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>55</v>
+      </c>
+      <c r="N14" s="7">
+        <v>33550</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6213</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,10 +4308,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4323,10 +4323,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4338,10 +4338,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4361,49 +4361,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>14164</v>
+        <v>12900</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13644</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7707</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>36</v>
+      </c>
+      <c r="N16" s="7">
+        <v>26543</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M16" s="7">
-        <v>35</v>
-      </c>
-      <c r="N16" s="7">
-        <v>21871</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,25 +4412,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>13642</v>
+        <v>17246</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>229</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>19908</v>
+        <v>19144</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>230</v>
@@ -4442,10 +4442,10 @@
         <v>232</v>
       </c>
       <c r="M17" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>33550</v>
+        <v>36391</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>233</v>
@@ -4463,25 +4463,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4493,10 +4493,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4681,7 +4681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EA3EE4-15F7-4A76-AF58-410F2880E35C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6944A0-9BA3-4910-98E9-2EF061F8B677}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4799,49 +4799,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>26002</v>
+        <v>578</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3935</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17418</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4513</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M4" s="7">
-        <v>61</v>
-      </c>
-      <c r="N4" s="7">
-        <v>43420</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,49 +4850,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>34843</v>
+        <v>3589</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2277</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="7">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22755</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5865</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M5" s="7">
-        <v>92</v>
-      </c>
-      <c r="N5" s="7">
-        <v>57598</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4916,10 +4916,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4931,10 +4931,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4960,13 +4960,13 @@
         <v>7142</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4975,13 +4975,13 @@
         <v>4906</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4990,13 +4990,13 @@
         <v>12048</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5011,13 @@
         <v>14462</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -5026,13 +5026,13 @@
         <v>14417</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5041,13 +5041,13 @@
         <v>28879</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,49 +5109,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>12787</v>
+        <v>26002</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>17418</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9829</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>61</v>
+      </c>
+      <c r="N10" s="7">
+        <v>43420</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="7">
-        <v>33</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22616</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,40 +5160,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>19640</v>
+        <v>34843</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22755</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H11" s="7">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20980</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>303</v>
       </c>
       <c r="M11" s="7">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="N11" s="7">
-        <v>40621</v>
+        <v>57598</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>304</v>
@@ -5211,10 +5211,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5226,10 +5226,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5241,10 +5241,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5264,49 +5264,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>578</v>
+        <v>23868</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>3935</v>
+        <v>32405</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>4513</v>
+        <v>56272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +5315,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>3589</v>
+        <v>29626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>2277</v>
+        <v>25490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N14" s="7">
-        <v>5865</v>
+        <v>55116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5381,10 +5381,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5396,10 +5396,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5419,49 +5419,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>23868</v>
+        <v>12787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>32405</v>
+        <v>9829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>56272</v>
+        <v>22616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,40 +5470,40 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>29626</v>
+        <v>19640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>25490</v>
+        <v>20980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>337</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N17" s="7">
-        <v>55116</v>
+        <v>40621</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>338</v>
@@ -5521,10 +5521,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5536,10 +5536,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5551,10 +5551,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8E907B-8038-4C93-B8D3-D1DAE830073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59459903-EADA-49B6-BE9F-0D236A06DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{426857ED-2422-419A-B502-81C8269207A1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C85B44A-2970-4A30-9762-74979AC89F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,27 +107,18 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
     <t>5,03%</t>
   </si>
   <si>
@@ -119,18 +128,18 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -140,18 +149,18 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
@@ -161,18 +170,18 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
@@ -182,13 +191,13 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -200,18 +209,21 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -221,901 +233,886 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>55,38%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>44,27%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>39,44%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>39,3%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
     <t>27,84%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>61,06%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>41,61%</t>
   </si>
   <si>
-    <t>28,13%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>57,19%</t>
   </si>
   <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>42,81%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>42,98%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
   <si>
     <t>50,52%</t>
   </si>
   <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>19,58%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
   </si>
   <si>
     <t>35,76%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1222,39 +1219,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1306,7 +1303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1417,13 +1414,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1432,6 +1422,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1496,19 +1493,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DD2E7-C05E-4BBD-8A23-75683DE00845}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E195AFA-ED9B-4FE7-9D08-687D82CC79DA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1625,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1640,34 +1657,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,10 +1693,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1691,34 +1708,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1750,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1748,13 +1765,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1763,13 +1780,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,49 +1797,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>23887</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>23124</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>47011</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,49 +1848,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>23887</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>23124</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>47011</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1905,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1903,13 +1920,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1918,13 +1935,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,49 +1952,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>41306</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>41647</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>82952</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,49 +2003,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>41306</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>41647</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>82952</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2060,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -2058,13 +2075,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -2073,13 +2090,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,49 +2107,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>35123</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>25164</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>60286</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,49 +2158,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>35123</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>25164</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>60286</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2215,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -2213,13 +2230,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -2228,13 +2245,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,49 +2262,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>38817</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>25677</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>64494</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,49 +2313,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>38817</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>25677</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>64494</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2370,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -2368,13 +2385,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -2383,13 +2400,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,49 +2417,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>143919</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>125305</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>269224</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,49 +2468,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>143919</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H20" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>125305</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" s="7">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>269224</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2525,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2523,13 +2540,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2538,13 +2555,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2565,8 +2587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B06A80-7621-4384-AE46-3075334F3AA0}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8D8D5-7E5A-4B32-8865-177ECD857A09}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2582,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2683,49 +2705,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>8885</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,49 +2756,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>6234</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>8885</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2813,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2806,13 +2828,13 @@
         <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2821,13 +2843,13 @@
         <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,25 +2860,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>12872</v>
+        <v>18900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>7960</v>
+        <v>17252</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>66</v>
@@ -2868,10 +2890,10 @@
         <v>68</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>20832</v>
+        <v>36153</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>69</v>
@@ -2889,49 +2911,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>18900</v>
+        <v>12872</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7960</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="7">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7">
-        <v>17252</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>28</v>
+      </c>
+      <c r="N8" s="7">
+        <v>20832</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="7">
-        <v>50</v>
-      </c>
-      <c r="N8" s="7">
-        <v>36153</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2968,13 @@
         <v>31772</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2961,13 +2983,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -2976,13 +2998,13 @@
         <v>56985</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +3015,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>17848</v>
+        <v>22472</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7">
+        <v>24589</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="7">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16012</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>69</v>
+      </c>
+      <c r="N10" s="7">
+        <v>47061</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="7">
-        <v>49</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33860</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,49 +3066,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>22472</v>
+        <v>17848</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16012</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="7">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7">
-        <v>24589</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>49</v>
+      </c>
+      <c r="N11" s="7">
+        <v>33860</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M11" s="7">
-        <v>69</v>
-      </c>
-      <c r="N11" s="7">
-        <v>47061</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3123,13 @@
         <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -3116,13 +3138,13 @@
         <v>40601</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -3131,13 +3153,13 @@
         <v>80921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +3170,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>10937</v>
+        <v>25664</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21072</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11892</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>73</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46736</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="7">
-        <v>37</v>
-      </c>
-      <c r="N13" s="7">
-        <v>22829</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,49 +3221,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>25664</v>
+        <v>10937</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11892</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="7">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21072</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>37</v>
+      </c>
+      <c r="N14" s="7">
+        <v>22829</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="7">
-        <v>73</v>
-      </c>
-      <c r="N14" s="7">
-        <v>46736</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3278,13 @@
         <v>36601</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -3271,13 +3293,13 @@
         <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -3286,13 +3308,13 @@
         <v>69565</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +3325,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>17970</v>
+        <v>29259</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29539</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12247</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>77</v>
+      </c>
+      <c r="N16" s="7">
+        <v>58798</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="7">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7">
-        <v>30217</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,49 +3376,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>29259</v>
+        <v>17970</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>12247</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="7">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29539</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>42</v>
+      </c>
+      <c r="N17" s="7">
+        <v>30217</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M17" s="7">
-        <v>77</v>
-      </c>
-      <c r="N17" s="7">
-        <v>58798</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3433,13 @@
         <v>47229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -3426,13 +3448,13 @@
         <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>119</v>
@@ -3441,13 +3463,13 @@
         <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,40 +3480,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>59627</v>
+        <v>98947</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>141</v>
+      </c>
+      <c r="I19" s="7">
+        <v>98686</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="7">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7">
-        <v>48111</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="N19" s="7">
-        <v>107738</v>
+        <v>197633</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -3509,10 +3531,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>98947</v>
+        <v>59627</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
@@ -3524,10 +3546,10 @@
         <v>145</v>
       </c>
       <c r="H20" s="7">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="I20" s="7">
-        <v>98686</v>
+        <v>48111</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -3536,22 +3558,22 @@
         <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="N20" s="7">
-        <v>197633</v>
+        <v>107738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3588,13 @@
         <v>158574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>212</v>
@@ -3581,13 +3603,13 @@
         <v>146797</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>435</v>
@@ -3596,13 +3618,18 @@
         <v>305371</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3623,8 +3650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C1A6E0-F3BB-495D-80F0-AE1846F72A9C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D50B6A-D9B1-4559-868C-F7795D9A23E1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3640,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3741,28 +3768,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>977</v>
+        <v>2533</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2799</v>
+        <v>3680</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>154</v>
@@ -3771,10 +3798,10 @@
         <v>155</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>3776</v>
+        <v>6213</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>156</v>
@@ -3792,49 +3819,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>2533</v>
+        <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2799</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>3680</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>3776</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6213</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3876,13 @@
         <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3864,13 +3891,13 @@
         <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3879,13 +3906,13 @@
         <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3923,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>12619</v>
+        <v>8048</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10698</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7182</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7">
+        <v>18746</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="7">
-        <v>28</v>
-      </c>
-      <c r="N7" s="7">
-        <v>19801</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,49 +3974,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12619</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>8048</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>7182</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="7">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10698</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>28</v>
+      </c>
+      <c r="N8" s="7">
+        <v>19801</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="M8" s="7">
-        <v>26</v>
-      </c>
-      <c r="N8" s="7">
-        <v>18746</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4031,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4019,13 +4046,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -4034,13 +4061,13 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +4078,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>14637</v>
+        <v>26510</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7">
+        <v>24782</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17917</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>81</v>
+      </c>
+      <c r="N10" s="7">
+        <v>51293</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="7">
-        <v>49</v>
-      </c>
-      <c r="N10" s="7">
-        <v>32553</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,49 +4129,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>26510</v>
+        <v>14637</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>28</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17917</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="7">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7">
-        <v>24782</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>49</v>
+      </c>
+      <c r="N11" s="7">
+        <v>32553</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M11" s="7">
-        <v>81</v>
-      </c>
-      <c r="N11" s="7">
-        <v>51293</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4186,13 @@
         <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -4174,13 +4201,13 @@
         <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -4189,13 +4216,13 @@
         <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,46 +4236,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>14164</v>
+        <v>13642</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19908</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7707</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>55</v>
+      </c>
+      <c r="N13" s="7">
+        <v>33550</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M13" s="7">
-        <v>35</v>
-      </c>
-      <c r="N13" s="7">
-        <v>21871</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,46 +4287,46 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>13642</v>
+        <v>14164</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7707</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="7">
-        <v>33</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19908</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>35</v>
+      </c>
+      <c r="N14" s="7">
+        <v>21871</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M14" s="7">
-        <v>55</v>
-      </c>
-      <c r="N14" s="7">
-        <v>33550</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4341,13 @@
         <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -4329,13 +4356,13 @@
         <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -4344,13 +4371,13 @@
         <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,49 +4388,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>12900</v>
+        <v>17246</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19144</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13644</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>50</v>
+      </c>
+      <c r="N16" s="7">
+        <v>36391</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M16" s="7">
-        <v>36</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26543</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,49 +4439,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>17246</v>
+        <v>12900</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13644</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19144</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>36</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26543</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="7">
-        <v>50</v>
-      </c>
-      <c r="N17" s="7">
-        <v>36391</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4496,13 @@
         <v>30146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -4484,13 +4511,13 @@
         <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -4499,13 +4526,13 @@
         <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,49 +4543,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7">
-        <v>55297</v>
+        <v>67979</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>119</v>
+      </c>
+      <c r="I19" s="7">
+        <v>78212</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="7">
-        <v>73</v>
-      </c>
-      <c r="I19" s="7">
-        <v>49249</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>219</v>
+      </c>
+      <c r="N19" s="7">
+        <v>146191</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M19" s="7">
-        <v>152</v>
-      </c>
-      <c r="N19" s="7">
-        <v>104546</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,49 +4594,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>67979</v>
+        <v>55297</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>73</v>
+      </c>
+      <c r="I20" s="7">
+        <v>49249</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="7">
-        <v>119</v>
-      </c>
-      <c r="I20" s="7">
-        <v>78212</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>152</v>
+      </c>
+      <c r="N20" s="7">
+        <v>104546</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M20" s="7">
-        <v>219</v>
-      </c>
-      <c r="N20" s="7">
-        <v>146191</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4651,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -4639,13 +4666,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -4654,13 +4681,18 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4681,8 +4713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6944A0-9BA3-4910-98E9-2EF061F8B677}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC9E62-F693-4406-837D-315D43570F95}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4698,7 +4730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4799,49 +4831,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>578</v>
+        <v>3589</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2277</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3935</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5865</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M4" s="7">
-        <v>8</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4513</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,49 +4882,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3589</v>
+        <v>578</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3935</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4513</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5865</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4939,13 @@
         <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4922,13 +4954,13 @@
         <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4937,13 +4969,13 @@
         <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,49 +4986,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>7142</v>
+        <v>14462</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7">
+        <v>14417</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4906</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>48</v>
+      </c>
+      <c r="N7" s="7">
+        <v>28879</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M7" s="7">
-        <v>17</v>
-      </c>
-      <c r="N7" s="7">
-        <v>12048</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,49 +5037,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>14462</v>
+        <v>7142</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4906</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="7">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14417</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7">
+        <v>12048</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="7">
-        <v>48</v>
-      </c>
-      <c r="N8" s="7">
-        <v>28879</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5094,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5077,13 +5109,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -5092,13 +5124,13 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,49 +5141,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>26002</v>
+        <v>34843</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7">
+        <v>22755</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17418</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>92</v>
+      </c>
+      <c r="N10" s="7">
+        <v>57598</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M10" s="7">
-        <v>61</v>
-      </c>
-      <c r="N10" s="7">
-        <v>43420</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,49 +5192,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>34843</v>
+        <v>26002</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17418</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H11" s="7">
-        <v>39</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22755</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>61</v>
+      </c>
+      <c r="N11" s="7">
+        <v>43420</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="M11" s="7">
-        <v>92</v>
-      </c>
-      <c r="N11" s="7">
-        <v>57598</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5249,13 @@
         <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -5232,13 +5264,13 @@
         <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -5247,13 +5279,13 @@
         <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5296,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>23868</v>
+        <v>29626</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25490</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="7">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7">
-        <v>32405</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>70</v>
+      </c>
+      <c r="N13" s="7">
+        <v>55116</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>56272</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +5347,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>29626</v>
+        <v>23868</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="7">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32405</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25490</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>77</v>
+      </c>
+      <c r="N14" s="7">
+        <v>56272</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="M14" s="7">
-        <v>70</v>
-      </c>
-      <c r="N14" s="7">
-        <v>55116</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5404,13 @@
         <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -5387,13 +5419,13 @@
         <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -5402,13 +5434,13 @@
         <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,49 +5451,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>12787</v>
+        <v>19640</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20980</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9829</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>60</v>
+      </c>
+      <c r="N16" s="7">
+        <v>40621</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22616</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,49 +5502,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>19640</v>
+        <v>12787</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9829</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="7">
-        <v>31</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20980</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>33</v>
+      </c>
+      <c r="N17" s="7">
+        <v>22616</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="M17" s="7">
-        <v>60</v>
-      </c>
-      <c r="N17" s="7">
-        <v>40621</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5559,13 @@
         <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -5542,13 +5574,13 @@
         <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -5557,13 +5589,13 @@
         <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,49 +5606,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7">
-        <v>70376</v>
+        <v>102161</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>125</v>
+      </c>
+      <c r="I19" s="7">
+        <v>85919</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="7">
-        <v>101</v>
-      </c>
-      <c r="I19" s="7">
-        <v>68493</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>280</v>
+      </c>
+      <c r="N19" s="7">
+        <v>188079</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="M19" s="7">
-        <v>196</v>
-      </c>
-      <c r="N19" s="7">
-        <v>138869</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,49 +5657,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>102161</v>
+        <v>70376</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>101</v>
+      </c>
+      <c r="I20" s="7">
+        <v>68493</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H20" s="7">
-        <v>125</v>
-      </c>
-      <c r="I20" s="7">
-        <v>85919</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>196</v>
+      </c>
+      <c r="N20" s="7">
+        <v>138869</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="M20" s="7">
-        <v>280</v>
-      </c>
-      <c r="N20" s="7">
-        <v>188079</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5714,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -5697,13 +5729,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -5712,13 +5744,18 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59459903-EADA-49B6-BE9F-0D236A06DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27046D9-30C7-4DDD-B3B4-544561034C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C85B44A-2970-4A30-9762-74979AC89F2D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4879339F-08DE-477B-8647-8EDC722CCAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="366">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -128,7 +128,7 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -149,7 +149,7 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -236,883 +236,907 @@
     <t>59,49%</t>
   </si>
   <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E195AFA-ED9B-4FE7-9D08-687D82CC79DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FD7D31-B7D5-44AB-A174-509A2FE3249F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2587,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8D8D5-7E5A-4B32-8865-177ECD857A09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BA0779-8FE7-4AEC-99C7-998A388BC556}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2896,7 @@
         <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2881,13 +2905,13 @@
         <v>17252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -2896,13 +2920,13 @@
         <v>36153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2941,13 @@
         <v>12872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -2932,13 +2956,13 @@
         <v>7960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -2947,13 +2971,13 @@
         <v>20832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3045,13 @@
         <v>22472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3036,13 +3060,13 @@
         <v>24589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3051,13 +3075,13 @@
         <v>47061</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3096,13 @@
         <v>17848</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3087,13 +3111,13 @@
         <v>16012</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -3102,13 +3126,13 @@
         <v>33860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3200,13 @@
         <v>25664</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3191,13 +3215,13 @@
         <v>21072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -3206,13 +3230,13 @@
         <v>46736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3251,13 @@
         <v>10937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3242,13 +3266,13 @@
         <v>11892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -3257,13 +3281,13 @@
         <v>22829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3355,13 @@
         <v>29259</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3346,13 +3370,13 @@
         <v>29539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3361,13 +3385,13 @@
         <v>58798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3406,13 @@
         <v>17970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3397,13 +3421,13 @@
         <v>12247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -3412,13 +3436,13 @@
         <v>30217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3510,13 @@
         <v>98947</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -3501,13 +3525,13 @@
         <v>98686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>279</v>
@@ -3516,13 +3540,13 @@
         <v>197633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3561,13 @@
         <v>59627</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -3552,13 +3576,13 @@
         <v>48111</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -3567,13 +3591,13 @@
         <v>107738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D50B6A-D9B1-4559-868C-F7795D9A23E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C9593-6AE6-4B57-9EE9-4C375CE7B5F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3774,10 +3798,10 @@
         <v>2533</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -3789,13 +3813,13 @@
         <v>3680</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3804,13 +3828,13 @@
         <v>6213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3849,13 @@
         <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3840,13 +3864,13 @@
         <v>2799</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3855,13 +3879,13 @@
         <v>3776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3953,13 @@
         <v>8048</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3944,13 +3968,13 @@
         <v>10698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3959,13 +3983,13 @@
         <v>18746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +4004,13 @@
         <v>12619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3995,13 +4019,13 @@
         <v>7182</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4010,13 +4034,13 @@
         <v>19801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4108,13 @@
         <v>26510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4099,13 +4123,13 @@
         <v>24782</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -4114,13 +4138,13 @@
         <v>51293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4159,13 @@
         <v>14637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4150,13 +4174,13 @@
         <v>17917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -4165,13 +4189,13 @@
         <v>32553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4263,13 @@
         <v>13642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4254,13 +4278,13 @@
         <v>19908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4269,13 +4293,13 @@
         <v>33550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4314,13 @@
         <v>14164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4305,13 +4329,13 @@
         <v>7707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4320,13 +4344,13 @@
         <v>21871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4418,13 @@
         <v>17246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4409,13 +4433,13 @@
         <v>19144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4424,13 +4448,13 @@
         <v>36391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4469,13 @@
         <v>12900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4460,13 +4484,13 @@
         <v>13644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4475,13 +4499,13 @@
         <v>26543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4573,13 @@
         <v>67979</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4564,13 +4588,13 @@
         <v>78212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -4579,13 +4603,13 @@
         <v>146191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4624,13 @@
         <v>55297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -4615,13 +4639,13 @@
         <v>49249</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -4630,13 +4654,13 @@
         <v>104546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC9E62-F693-4406-837D-315D43570F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCFE10-CA95-4CE5-B830-5CDE1B254D82}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4730,7 +4754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4837,10 +4861,10 @@
         <v>3589</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4852,13 +4876,13 @@
         <v>2277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4867,13 +4891,13 @@
         <v>5865</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4912,13 @@
         <v>578</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4903,13 +4927,13 @@
         <v>3935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4918,13 +4942,13 @@
         <v>4513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5016,13 @@
         <v>14462</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5007,13 +5031,13 @@
         <v>14417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5022,13 +5046,13 @@
         <v>28879</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5067,13 @@
         <v>7142</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5058,13 +5082,13 @@
         <v>4906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5073,13 +5097,13 @@
         <v>12048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5171,13 @@
         <v>34843</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5162,13 +5186,13 @@
         <v>22755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -5177,13 +5201,13 @@
         <v>57598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5222,13 @@
         <v>26002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -5213,13 +5237,13 @@
         <v>17418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -5228,13 +5252,13 @@
         <v>43420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5326,13 @@
         <v>29626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5317,13 +5341,13 @@
         <v>25490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -5332,13 +5356,13 @@
         <v>55116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5377,13 @@
         <v>23868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -5368,13 +5392,13 @@
         <v>32405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5383,13 +5407,13 @@
         <v>56272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5481,13 @@
         <v>19640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5472,13 +5496,13 @@
         <v>20980</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -5487,13 +5511,13 @@
         <v>40621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5532,13 @@
         <v>12787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5523,13 +5547,13 @@
         <v>9829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5538,13 +5562,13 @@
         <v>22616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5636,13 @@
         <v>102161</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -5627,13 +5651,13 @@
         <v>85919</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -5642,13 +5666,13 @@
         <v>188079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5687,13 @@
         <v>70376</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -5678,13 +5702,13 @@
         <v>68493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>196</v>
@@ -5693,13 +5717,13 @@
         <v>138869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27046D9-30C7-4DDD-B3B4-544561034C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CC7660-414D-43F7-BA3B-2953DF38C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4879339F-08DE-477B-8647-8EDC722CCAC6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{41F3805A-1A47-4419-91CF-E80A7981D373}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="313">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,16 +77,16 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,114 +98,87 @@
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>97,18%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
     <t>98,52%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>98,02%</t>
   </si>
   <si>
+    <t>4,44%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>94,55%</t>
+  </si>
+  <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>5,45%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
@@ -215,928 +188,796 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
   </si>
   <si>
     <t>55,73%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>56,8%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>58,53%</t>
   </si>
   <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
   </si>
 </sst>
 </file>
@@ -1548,8 +1389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FD7D31-B7D5-44AB-A174-509A2FE3249F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C4892B-3A33-4B16-87EA-AA6E8077309D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1666,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1681,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1696,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1768,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1783,10 +1624,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1798,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1821,10 +1662,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1836,10 +1677,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1851,10 +1692,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N7" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
@@ -1923,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1938,10 +1779,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1953,10 +1794,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1976,10 +1817,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1991,10 +1832,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -2006,10 +1847,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -2078,10 +1919,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2093,10 +1934,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2108,10 +1949,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2131,10 +1972,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -2146,10 +1987,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -2161,16 +2002,16 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2194,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2209,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2224,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2248,10 +2089,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2263,10 +2104,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2280,52 +2121,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D16" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N16" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2349,7 +2190,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2364,7 +2205,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2379,7 +2220,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2403,10 +2244,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2418,10 +2259,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2434,171 +2275,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>215</v>
-      </c>
-      <c r="D19" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>190</v>
-      </c>
-      <c r="I19" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>405</v>
-      </c>
-      <c r="N19" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2611,8 +2296,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BA0779-8FE7-4AEC-99C7-998A388BC556}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E38CB-5C89-4BA1-B285-CC6BB4BDFD05}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2628,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2729,49 +2414,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>23486</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>6234</v>
+        <v>21552</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>8885</v>
+        <v>45038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,49 +2465,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>7960</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="7">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>12872</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>20832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,10 +2516,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2846,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2861,10 +2546,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2884,49 +2569,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>18900</v>
+        <v>24589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>17252</v>
+        <v>22472</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="7">
         <v>69</v>
       </c>
-      <c r="M7" s="7">
-        <v>50</v>
-      </c>
       <c r="N7" s="7">
-        <v>36153</v>
+        <v>47061</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,49 +2620,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>12872</v>
+        <v>16012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>7960</v>
+        <v>17848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>20832</v>
+        <v>33860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>31772</v>
+        <v>40601</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3001,10 +2686,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3016,10 +2701,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="N9" s="7">
-        <v>56985</v>
+        <v>80921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3039,49 +2724,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>22472</v>
+        <v>21072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>24589</v>
+        <v>25664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>47061</v>
+        <v>46736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,49 +2775,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>17848</v>
+        <v>11892</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>16012</v>
+        <v>10937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>33860</v>
+        <v>22829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,10 +2826,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>40320</v>
+        <v>32964</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3156,10 +2841,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I12" s="7">
-        <v>40601</v>
+        <v>36601</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3171,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>80921</v>
+        <v>69565</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3197,46 +2882,46 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>25664</v>
+        <v>29539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>21072</v>
+        <v>29259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>46736</v>
+        <v>58798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,49 +2930,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>10937</v>
+        <v>12247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>11892</v>
+        <v>17970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>22829</v>
+        <v>30217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>36601</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3311,10 +2996,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3326,10 +3011,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>69565</v>
+        <v>89015</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3343,55 +3028,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D16" s="7">
-        <v>29259</v>
+        <v>98686</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>29539</v>
+        <v>98947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="N16" s="7">
-        <v>58798</v>
+        <v>197633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,49 +3085,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>17970</v>
+        <v>48111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>12247</v>
+        <v>59627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="N17" s="7">
-        <v>30217</v>
+        <v>107738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>47229</v>
+        <v>146797</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3466,10 +3151,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>41786</v>
+        <v>158574</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3481,10 +3166,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="N18" s="7">
-        <v>89015</v>
+        <v>305371</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3497,171 +3182,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>138</v>
-      </c>
-      <c r="D19" s="7">
-        <v>98947</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="7">
-        <v>141</v>
-      </c>
-      <c r="I19" s="7">
-        <v>98686</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" s="7">
-        <v>279</v>
-      </c>
-      <c r="N19" s="7">
-        <v>197633</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>85</v>
-      </c>
-      <c r="D20" s="7">
-        <v>59627</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="7">
-        <v>71</v>
-      </c>
-      <c r="I20" s="7">
-        <v>48111</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M20" s="7">
-        <v>156</v>
-      </c>
-      <c r="N20" s="7">
-        <v>107738</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>223</v>
-      </c>
-      <c r="D21" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>146797</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>435</v>
-      </c>
-      <c r="N21" s="7">
-        <v>305371</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3674,8 +3203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C9593-6AE6-4B57-9EE9-4C375CE7B5F8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12C155-55AB-45D2-92AE-B19965AA48A2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3691,7 +3220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3792,49 +3321,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>2533</v>
+        <v>14378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>3680</v>
+        <v>10580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>6213</v>
+        <v>24958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,49 +3372,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>977</v>
+        <v>9981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>2799</v>
+        <v>13596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>3776</v>
+        <v>23578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,10 +3423,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3909,10 +3438,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3924,10 +3453,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3947,49 +3476,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>8048</v>
+        <v>24782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>10698</v>
+        <v>26510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>18746</v>
+        <v>51293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,49 +3527,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>12619</v>
+        <v>17917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>7182</v>
+        <v>14637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>19801</v>
+        <v>32553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -4064,10 +3593,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -4079,10 +3608,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -4102,49 +3631,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>26510</v>
+        <v>19908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>24782</v>
+        <v>13642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>51293</v>
+        <v>33550</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,49 +3682,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>14637</v>
+        <v>7707</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>17917</v>
+        <v>14164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>32553</v>
+        <v>21871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,10 +3733,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -4219,10 +3748,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4234,10 +3763,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -4257,49 +3786,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>13642</v>
+        <v>19144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>19908</v>
+        <v>17246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>33550</v>
+        <v>36391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +3837,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>14164</v>
+        <v>13644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>7707</v>
+        <v>12900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>21871</v>
+        <v>26543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,7 +3891,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4374,10 +3903,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4389,10 +3918,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4406,55 +3935,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>17246</v>
+        <v>78212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>19144</v>
+        <v>67979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="N16" s="7">
-        <v>36391</v>
+        <v>146191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +3992,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>12900</v>
+        <v>49249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>13644</v>
+        <v>55297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="N17" s="7">
-        <v>26543</v>
+        <v>104546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4529,10 +4058,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4544,10 +4073,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4560,171 +4089,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>100</v>
-      </c>
-      <c r="D19" s="7">
-        <v>67979</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="7">
-        <v>119</v>
-      </c>
-      <c r="I19" s="7">
-        <v>78212</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M19" s="7">
-        <v>219</v>
-      </c>
-      <c r="N19" s="7">
-        <v>146191</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7">
-        <v>55297</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="7">
-        <v>73</v>
-      </c>
-      <c r="I20" s="7">
-        <v>49249</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M20" s="7">
-        <v>152</v>
-      </c>
-      <c r="N20" s="7">
-        <v>104546</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4737,8 +4110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCFE10-CA95-4CE5-B830-5CDE1B254D82}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24D64-8B95-4C64-963C-CE04054A2096}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4754,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4855,49 +4228,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>3589</v>
+        <v>16952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>2277</v>
+        <v>19243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>5865</v>
+        <v>36196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,49 +4279,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>578</v>
+        <v>8889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>3935</v>
+        <v>8417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>4513</v>
+        <v>17305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -4972,10 +4345,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -4987,10 +4360,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -5010,49 +4383,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>14462</v>
+        <v>22722</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>14417</v>
+        <v>36267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>28879</v>
+        <v>58989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,49 +4434,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>7142</v>
+        <v>21520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7">
-        <v>4906</v>
+        <v>27542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>12048</v>
+        <v>49062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -5127,10 +4500,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -5142,10 +4515,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -5165,49 +4538,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>34843</v>
+        <v>43507</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>22755</v>
+        <v>31455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>57598</v>
+        <v>74962</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,49 +4589,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>26002</v>
+        <v>33564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>17418</v>
+        <v>25468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7">
-        <v>43420</v>
+        <v>59032</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -5282,10 +4655,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -5297,10 +4670,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -5320,49 +4693,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>29626</v>
+        <v>20837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>25490</v>
+        <v>20596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>55116</v>
+        <v>41433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,49 +4744,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>23868</v>
+        <v>9724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>32405</v>
+        <v>13213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>56272</v>
+        <v>22937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,10 +4795,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -5437,10 +4810,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -5452,10 +4825,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -5469,55 +4842,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>19640</v>
+        <v>104018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>20980</v>
+        <v>107562</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="N16" s="7">
-        <v>40621</v>
+        <v>211579</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,49 +4899,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D17" s="7">
-        <v>12787</v>
+        <v>73697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I17" s="7">
-        <v>9829</v>
+        <v>74639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="N17" s="7">
-        <v>22616</v>
+        <v>148337</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -5592,202 +4965,46 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
+        <v>250</v>
+      </c>
+      <c r="I18" s="7">
+        <v>182201</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>476</v>
+      </c>
+      <c r="N18" s="7">
+        <v>359916</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="7">
-        <v>30809</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>93</v>
-      </c>
-      <c r="N18" s="7">
-        <v>63237</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>155</v>
-      </c>
-      <c r="D19" s="7">
-        <v>102161</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H19" s="7">
-        <v>125</v>
-      </c>
-      <c r="I19" s="7">
-        <v>85919</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M19" s="7">
-        <v>280</v>
-      </c>
-      <c r="N19" s="7">
-        <v>188079</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>95</v>
-      </c>
-      <c r="D20" s="7">
-        <v>70376</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" s="7">
-        <v>101</v>
-      </c>
-      <c r="I20" s="7">
-        <v>68493</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M20" s="7">
-        <v>196</v>
-      </c>
-      <c r="N20" s="7">
-        <v>138869</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
